--- a/Projektdefinition/Arbeitsplatz/REST Spezifikation.xlsx
+++ b/Projektdefinition/Arbeitsplatz/REST Spezifikation.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>Ressource</t>
   </si>
@@ -98,28 +98,40 @@
     <t>eigenes Profil anzeigen</t>
   </si>
   <si>
-    <t>:id/:strichliste</t>
-  </si>
-  <si>
     <t>Strichliste soll um eins erhöht oder komplett geleert werden</t>
   </si>
   <si>
-    <t>/user/:id/projekt</t>
-  </si>
-  <si>
-    <t>/user/:id/projekt/:projektid</t>
-  </si>
-  <si>
     <t>bestimmtes Projekt anzeigen</t>
   </si>
   <si>
     <t>zeigt alle Projekte eines Benutzers an</t>
   </si>
   <si>
-    <t>/user/:id/projekt/:projektid/kommentar</t>
-  </si>
-  <si>
-    <t>/user/:id/projekt/:projektid/kommentar/:erstellerid</t>
+    <t>/user/projekt/:id</t>
+  </si>
+  <si>
+    <t>/user/:id/strichliste</t>
+  </si>
+  <si>
+    <t>/user/projekt/kommentar/</t>
+  </si>
+  <si>
+    <t>/user/projekt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kommentar/:kommentarid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/user/projekt/ </t>
+  </si>
+  <si>
+    <t>Abfrage eines bestimmten Kommentars</t>
+  </si>
+  <si>
+    <t>eigene Strichliste einsehen</t>
+  </si>
+  <si>
+    <t>erstellen einer Strichliste</t>
   </si>
 </sst>
 </file>
@@ -162,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -238,59 +250,420 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -299,35 +672,138 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -343,7 +819,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -361,50 +837,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,306 +1287,347 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="40.375" customWidth="1"/>
     <col min="4" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="10.75" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60"/>
+      <c r="B3" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21" t="s">
+      <c r="D3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="62"/>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="4" t="s">
+      <c r="E5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="64"/>
+      <c r="B6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="D6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="2" t="s">
+      <c r="E7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63"/>
+      <c r="B8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="D9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="D10" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D12" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="56"/>
+      <c r="B14" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="10" t="s">
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="C19" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="D19" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
